--- a/biology/Microbiologie/Streptomyces_hygroscopicus/Streptomyces_hygroscopicus.xlsx
+++ b/biology/Microbiologie/Streptomyces_hygroscopicus/Streptomyces_hygroscopicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Streptomyces hygroscopicus[1] est une bactérie à Gram positif et taux de GC élevé de l'ordre des Actinomycetales. Ses cultures peuvent être utilisées pour produire un certain nombre d'enzymes et de composés chimiques, dont voici quelques exemples :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Streptomyces hygroscopicus est une bactérie à Gram positif et taux de GC élevé de l'ordre des Actinomycetales. Ses cultures peuvent être utilisées pour produire un certain nombre d'enzymes et de composés chimiques, dont voici quelques exemples :
 Immunosuppresseurs
 Le sirolimus ou rapamycine, est un immunosuppresseur isolé chez S. hygroscopicus à partir d'échantillons de sol provenant de l'île de Pâques. L'ascomycine (en) peut être utilisée pour traiter des maladies auto-immunes et des affections cutanées, et peut aider à prévenir le rejet après une greffe d'organe.
 Antibiotiques
@@ -492,7 +504,7 @@
 Anthelmintiques et insecticides
 Des cultures de S. hygroscopicus peuvent produire de la milbémycine et de l'oxime de milbémycine.
 Herbicide
-S. hygroscopicus peut également produire du bialaphos, un herbicide naturel[2].
+S. hygroscopicus peut également produire du bialaphos, un herbicide naturel.
 Enzymes
 Des cultures de S. hygroscopicus peuvent enfin produire des enzymes telles que la GDP-glucose-glucosephosphate glucosyltransférase, la carboxyvinyl-carboxyphosphonate phosphorylmutase ou encore l'hygromycine-B kinase.</t>
         </is>
